--- a/URS/DbLayouts/L6-共同作業/CdBranchGroup.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdBranchGroup.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622AC59E-A2AF-47EB-87BC-AB02220F7EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -130,10 +131,6 @@
   </si>
   <si>
     <t>課組別代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -178,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -325,70 +322,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,6 +476,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -514,6 +528,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,272 +720,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="5.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>4</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <f t="shared" ref="A11:A15" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>10</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>6</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>6</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -975,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -985,33 +1016,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="17" style="18" customWidth="1"/>
-    <col min="4" max="4" width="4" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="17.88671875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17" style="16" customWidth="1"/>
+    <col min="4" max="4" width="4" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
